--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1624590.611453959</v>
+        <v>1631697.575461432</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>24.95505229511726</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>21.84039882228386</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -701,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="S2" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="V3" t="n">
-        <v>53.51252900994975</v>
+        <v>46.38724422570586</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>53.51252900994975</v>
+        <v>1.170977004479167</v>
       </c>
       <c r="I4" t="n">
-        <v>1.170977004479181</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>71.01467844038818</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,16 +938,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>205.4093399017307</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1026,13 +1026,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>57.71533352957419</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>91.1499599178288</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>72.47049842454874</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
+        <v>26.92766962273839</v>
+      </c>
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1263,19 +1263,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>18.48438756347333</v>
+        <v>126.647038187302</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,31 +1412,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.0142888776591</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,19 +1446,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>106.6874096712025</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1506,16 +1506,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>125.2132019625774</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1573,13 +1573,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
         <v>44.30348359856715</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1625,10 +1625,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>202.2946864288972</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1695,16 +1695,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>116.6212288438213</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1746,13 +1746,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>190.3453970742847</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1923,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>110.8283177867685</v>
       </c>
       <c r="H18" t="n">
-        <v>100.0376190809312</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2081,73 +2081,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.991949277019346</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>15.42067328920995</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>93.89280440219174</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2406,13 +2406,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2494,40 +2494,40 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2609,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>241.0142888776591</v>
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>46.68561093626613</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2691,16 +2691,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>172.0165597673855</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2767,16 +2767,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,19 +2871,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>116.3574842377615</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2928,16 +2928,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>241.0142888776591</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>150.3246234415776</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>56.91690033700343</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,19 +3275,19 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3329,10 +3329,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>31.69844046683744</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>82.89146069526061</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -3399,10 +3399,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3475,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,64 +3512,64 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S38" t="n">
-        <v>52.42556848774752</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -3600,7 +3600,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>69.05674881342118</v>
+        <v>41.49302274650503</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3740,61 +3740,61 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3831,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>106.4852585205976</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>116.325098768111</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,10 +3879,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3910,58 +3910,58 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,68 +3974,68 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
+      <c r="V44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4065,19 +4065,19 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>103.9396153137087</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.89093722176946</v>
+        <v>41.79932185354236</v>
       </c>
       <c r="C2" t="n">
-        <v>26.68381369134799</v>
+        <v>41.79932185354236</v>
       </c>
       <c r="D2" t="n">
-        <v>26.68381369134799</v>
+        <v>41.79932185354236</v>
       </c>
       <c r="E2" t="n">
-        <v>26.68381369134799</v>
+        <v>41.79932185354236</v>
       </c>
       <c r="F2" t="n">
         <v>19.73831294214452</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="J2" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064624</v>
       </c>
       <c r="L2" t="n">
-        <v>55.11790488024824</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199488</v>
       </c>
       <c r="N2" t="n">
-        <v>161.0727123199487</v>
+        <v>161.0727123199488</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>161.0727123199488</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.958500671572</v>
       </c>
       <c r="R2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>105.9439968277793</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="T2" t="n">
-        <v>105.9439968277793</v>
+        <v>41.79932185354236</v>
       </c>
       <c r="U2" t="n">
-        <v>105.9439968277793</v>
+        <v>41.79932185354236</v>
       </c>
       <c r="V2" t="n">
-        <v>105.9439968277793</v>
+        <v>41.79932185354236</v>
       </c>
       <c r="W2" t="n">
-        <v>105.9439968277793</v>
+        <v>41.79932185354236</v>
       </c>
       <c r="X2" t="n">
-        <v>105.9439968277793</v>
+        <v>41.79932185354236</v>
       </c>
       <c r="Y2" t="n">
-        <v>105.9439968277793</v>
+        <v>41.79932185354236</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.9439968277793</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="C3" t="n">
-        <v>51.89093722176946</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="D3" t="n">
-        <v>51.89093722176946</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="E3" t="n">
-        <v>51.89093722176946</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="F3" t="n">
-        <v>51.89093722176946</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="J3" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064623</v>
+        <v>57.25840604064624</v>
       </c>
       <c r="L3" t="n">
-        <v>108.0953086000985</v>
+        <v>57.25840604064624</v>
       </c>
       <c r="M3" t="n">
-        <v>108.0953086000985</v>
+        <v>57.25840604064624</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>57.25840604064624</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>163.2132134803468</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
@@ -4434,25 +4434,25 @@
         <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="U3" t="n">
-        <v>214.050116039799</v>
+        <v>51.89093722176944</v>
       </c>
       <c r="V3" t="n">
-        <v>159.9970564337892</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="W3" t="n">
-        <v>159.9970564337892</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="X3" t="n">
-        <v>159.9970564337892</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="Y3" t="n">
-        <v>105.9439968277793</v>
+        <v>5.035134973581695</v>
       </c>
     </row>
     <row r="4">
@@ -4480,16 +4480,16 @@
         <v>136.0643627756056</v>
       </c>
       <c r="H4" t="n">
-        <v>82.01130316959576</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82849811456629</v>
+        <v>80.8284981145663</v>
       </c>
       <c r="J4" t="n">
         <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="L4" t="n">
         <v>31.59512732850896</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.5825927271064</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="C5" t="n">
-        <v>730.8505943024719</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="D5" t="n">
-        <v>730.8505943024719</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="E5" t="n">
-        <v>730.8505943024719</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>756.5729737917163</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>756.5729737917163</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>756.5729737917163</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>756.5729737917163</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>756.5729737917163</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>513.1241971476163</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>670.606730582354</v>
+        <v>441.5762760221259</v>
       </c>
       <c r="C6" t="n">
-        <v>670.606730582354</v>
+        <v>441.5762760221259</v>
       </c>
       <c r="D6" t="n">
-        <v>521.6723209211027</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="E6" t="n">
-        <v>362.4348659156472</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4656,13 +4656,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4674,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>905.7588388140966</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>670.606730582354</v>
+        <v>441.5762760221259</v>
       </c>
       <c r="W6" t="n">
-        <v>670.606730582354</v>
+        <v>441.5762760221259</v>
       </c>
       <c r="X6" t="n">
-        <v>670.606730582354</v>
+        <v>441.5762760221259</v>
       </c>
       <c r="Y6" t="n">
-        <v>670.606730582354</v>
+        <v>441.5762760221259</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>348.0024326625565</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C8" t="n">
-        <v>348.0024326625565</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D8" t="n">
-        <v>348.0024326625565</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E8" t="n">
-        <v>348.0024326625565</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>502.5314946968828</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y8" t="n">
-        <v>348.0024326625565</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4887,13 +4887,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4911,22 +4911,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>670.7991829652278</v>
+        <v>561.5439803148959</v>
       </c>
       <c r="U9" t="n">
-        <v>670.7991829652278</v>
+        <v>561.5439803148959</v>
       </c>
       <c r="V9" t="n">
-        <v>435.6470747334852</v>
+        <v>561.5439803148959</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>318.0952036707959</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>318.0952036707959</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="10">
@@ -4942,10 +4942,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V11" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W11" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X11" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>648.4405950311615</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C12" t="n">
-        <v>473.9875657500345</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D12" t="n">
-        <v>325.0531560887832</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E12" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
         <v>19.28114311021272</v>
@@ -5121,16 +5121,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O12" t="n">
         <v>712.019119383956</v>
@@ -5154,16 +5154,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>837.579173730255</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>594.130397086155</v>
       </c>
       <c r="X12" t="n">
-        <v>756.2056553051034</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="Y12" t="n">
-        <v>756.2056553051034</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="13">
@@ -5221,10 +5221,10 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T13" t="n">
         <v>19.28114311021272</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F14" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G14" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H14" t="n">
-        <v>223.6192102101089</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>487.2836868729568</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C15" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>340.7491288998418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5364,13 +5364,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N15" t="n">
         <v>613.2059550252818</v>
       </c>
-      <c r="N15" t="n">
-        <v>781.4136778972854</v>
-      </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5379,28 +5379,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>487.2836868729568</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X15" t="n">
-        <v>487.2836868729568</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y15" t="n">
-        <v>487.2836868729568</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="E17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="F17" t="n">
-        <v>710.516763498309</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="G17" t="n">
-        <v>467.067986854209</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="H17" t="n">
-        <v>223.6192102101089</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>259.0600686093459</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D18" t="n">
-        <v>259.0600686093459</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E18" t="n">
-        <v>259.0600686093459</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F18" t="n">
-        <v>259.0600686093459</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G18" t="n">
-        <v>120.3292431919614</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5595,49 +5595,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5695,7 +5695,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5786,16 +5786,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>203.827050448935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>29.37402116780802</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>29.37402116780802</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>29.37402116780802</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>29.37402116780802</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>29.37402116780802</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>29.37402116780802</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>847.3111883976533</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>847.3111883976533</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>847.3111883976533</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>847.3111883976533</v>
       </c>
       <c r="W21" t="n">
-        <v>619.4388494194218</v>
+        <v>603.8624117535533</v>
       </c>
       <c r="X21" t="n">
-        <v>411.587349213889</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.827050448935</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
         <v>262.7299197543128</v>
@@ -6026,13 +6026,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6069,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
         <v>19.28114311021272</v>
@@ -6175,22 +6175,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6257,7 +6257,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
         <v>749.627473042513</v>
@@ -6266,10 +6266,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="Y26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>520.918188268317</v>
+        <v>521.1447485139397</v>
       </c>
       <c r="C27" t="n">
-        <v>520.918188268317</v>
+        <v>521.1447485139397</v>
       </c>
       <c r="D27" t="n">
-        <v>520.918188268317</v>
+        <v>372.2103388526884</v>
       </c>
       <c r="E27" t="n">
-        <v>361.6807332628614</v>
+        <v>212.9728838472329</v>
       </c>
       <c r="F27" t="n">
-        <v>361.6807332628614</v>
+        <v>66.43832587411791</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,16 +6306,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X27" t="n">
-        <v>689.133525288385</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y27" t="n">
-        <v>689.133525288385</v>
+        <v>521.1447485139397</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6497,16 +6497,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>619.4388494194218</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>444.9858201382948</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>296.0514104770435</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>136.813955471588</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>136.813955471588</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,16 +6546,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W30" t="n">
-        <v>619.4388494194218</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X30" t="n">
-        <v>619.4388494194218</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y30" t="n">
-        <v>619.4388494194218</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>171.1241970916042</v>
       </c>
       <c r="C33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6780,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>906.5653369884105</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>906.5653369884105</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>678.3417187247995</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>339.3395341116723</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
         <v>19.28114311021272</v>
@@ -6895,13 +6895,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C35" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D35" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E35" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F35" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y35" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,46 +7020,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V36" t="n">
-        <v>259.0600686093459</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W36" t="n">
-        <v>259.0600686093459</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X36" t="n">
-        <v>259.0600686093459</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y36" t="n">
-        <v>51.29976984439196</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="37">
@@ -7111,22 +7111,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>795.8418184905681</v>
+        <v>313.2932483084068</v>
       </c>
       <c r="C39" t="n">
-        <v>795.8418184905681</v>
+        <v>313.2932483084068</v>
       </c>
       <c r="D39" t="n">
-        <v>646.9074088293169</v>
+        <v>313.2932483084068</v>
       </c>
       <c r="E39" t="n">
-        <v>487.6699538238614</v>
+        <v>313.2932483084068</v>
       </c>
       <c r="F39" t="n">
-        <v>341.1353958507464</v>
+        <v>313.2932483084068</v>
       </c>
       <c r="G39" t="n">
-        <v>202.4045704333619</v>
+        <v>174.5624228910223</v>
       </c>
       <c r="H39" t="n">
-        <v>89.03543484094119</v>
+        <v>61.19328729860165</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7254,16 +7254,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7287,16 +7287,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X39" t="n">
-        <v>964.0571555106362</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y39" t="n">
-        <v>964.0571555106362</v>
+        <v>313.2932483084068</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C41" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D41" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y41" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>414.6641751762832</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>240.2111458951562</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>240.2111458951562</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>240.2111458951562</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>240.2111458951562</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7491,22 +7491,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>248.2447175439888</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>846.5570557448675</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>846.5570557448675</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>846.5570557448675</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>846.5570557448675</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>603.1082791007675</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X42" t="n">
-        <v>395.2567788952347</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y42" t="n">
-        <v>187.4964801302808</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7609,10 +7609,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>353.3011080883284</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C45" t="n">
-        <v>353.3011080883284</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D45" t="n">
-        <v>353.3011080883284</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E45" t="n">
-        <v>353.3011080883284</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F45" t="n">
-        <v>248.3115976704407</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G45" t="n">
-        <v>109.5807722530562</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5807722530562</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7752,25 +7752,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>353.3011080883284</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W45" t="n">
-        <v>353.3011080883284</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X45" t="n">
-        <v>353.3011080883284</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y45" t="n">
-        <v>353.3011080883284</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -7837,19 +7837,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
         <v>287.1168215956966</v>
@@ -7988,7 +7988,7 @@
         <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
@@ -8061,7 +8061,7 @@
         <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>189.9047864055835</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
@@ -8070,13 +8070,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
         <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>191.3321807117309</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8304,16 +8304,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,16 +8535,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,19 +8769,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9012,16 +9012,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O18" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>222.4246658592332</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10194,19 +10194,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10437,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>186.8580120236956</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,7 +10668,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10680,10 +10680,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,19 +10902,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133072</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11151,13 +11151,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23270,7 +23270,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23279,7 +23279,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,31 +23300,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,19 +23334,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>59.84577397866485</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23394,16 +23394,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>107.5873851868479</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>183.6421058297144</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23513,10 +23513,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>8.181203141508689</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23571,10 +23571,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23583,16 +23583,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>20.72228831938936</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,13 +23619,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23634,13 +23634,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23750,10 +23750,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>20.13049249612121</v>
+        <v>148.0596218681136</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,10 +23774,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23811,25 +23811,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>26.51519937644218</v>
       </c>
       <c r="H18" t="n">
-        <v>12.1978251555653</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23935,10 +23935,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23969,10 +23969,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24026,7 +24026,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24066,10 +24066,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>79.40468357439573</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,7 +24096,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>156.2624978146279</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24181,7 +24181,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>72.6403792476756</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24294,13 +24294,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,25 +24330,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24382,7 +24382,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24455,7 +24455,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24497,16 +24497,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V26" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>145.2236497783945</v>
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>90.6579062269445</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24579,16 +24579,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>33.756425436092</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24683,7 +24683,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,7 +24692,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24737,16 +24737,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,19 +24759,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>20.98603292544909</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>50.84673021034784</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24816,16 +24816,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24889,7 +24889,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,7 +24917,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24935,7 +24935,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>145.2236497783945</v>
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>22.38387554673815</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25044,13 +25044,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>114.7662707668344</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25062,7 +25062,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,7 +25154,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,19 +25163,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25217,10 +25217,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>169.3950043896394</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>134.8347431830299</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>64.55360486937815</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25251,10 +25251,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25287,10 +25287,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25351,7 +25351,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25363,13 +25363,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25400,10 +25400,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25412,7 +25412,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,13 +25433,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25448,16 +25448,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>169.3950043896394</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,19 +25467,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25488,7 +25488,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.3398840379939</v>
+        <v>47.90361010491005</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25527,16 +25527,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25628,19 +25628,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25682,7 +25682,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25707,7 +25707,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25719,10 +25719,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>30.85825864261307</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25755,7 +25755,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>55.3580723357268</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25767,10 +25767,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25916,13 +25916,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>49.05096647893927</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25953,19 +25953,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>41.12959707967514</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>40.08552890911985</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,10 +25992,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26004,13 +26004,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>374159.2379208572</v>
+        <v>374159.2379208573</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>374159.237920857</v>
+        <v>374159.2379208572</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>374159.2379208572</v>
+        <v>374159.2379208573</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>374159.2379208572</v>
+        <v>374159.2379208573</v>
       </c>
     </row>
     <row r="15">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
         <v>249241.0087969985</v>
@@ -26326,7 +26326,7 @@
         <v>249241.0087969986</v>
       </c>
       <c r="G2" t="n">
-        <v>249241.0087969985</v>
+        <v>249241.0087969986</v>
       </c>
       <c r="H2" t="n">
         <v>249241.0087969986</v>
@@ -26335,22 +26335,22 @@
         <v>249241.0087969986</v>
       </c>
       <c r="J2" t="n">
-        <v>249241.0087969985</v>
+        <v>249241.0087969986</v>
       </c>
       <c r="K2" t="n">
         <v>249241.0087969986</v>
       </c>
       <c r="L2" t="n">
+        <v>249241.0087969985</v>
+      </c>
+      <c r="M2" t="n">
         <v>249241.0087969986</v>
-      </c>
-      <c r="M2" t="n">
-        <v>249241.0087969985</v>
       </c>
       <c r="N2" t="n">
         <v>249241.0087969985</v>
       </c>
       <c r="O2" t="n">
-        <v>249241.0087969986</v>
+        <v>249241.0087969985</v>
       </c>
       <c r="P2" t="n">
         <v>249241.0087969986</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>360814.637350784</v>
+        <v>360174.3645198887</v>
       </c>
       <c r="C4" t="n">
-        <v>321840.7818943749</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="D4" t="n">
-        <v>321840.7818943749</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="E4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="F4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="G4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="H4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="J4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="K4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589616</v>
       </c>
       <c r="L4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="M4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="N4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="P4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589615</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200152.2490242222</v>
+        <v>200792.5218551174</v>
       </c>
       <c r="C6" t="n">
-        <v>185082.9545534076</v>
+        <v>185960.783457427</v>
       </c>
       <c r="D6" t="n">
-        <v>245659.2767400759</v>
+        <v>246537.1056440954</v>
       </c>
       <c r="E6" t="n">
-        <v>191692.0857733214</v>
+        <v>192569.9146773407</v>
       </c>
       <c r="F6" t="n">
-        <v>191692.0857733214</v>
+        <v>192569.9146773408</v>
       </c>
       <c r="G6" t="n">
-        <v>191692.0857733214</v>
+        <v>192569.9146773407</v>
       </c>
       <c r="H6" t="n">
-        <v>191692.0857733214</v>
+        <v>192569.9146773408</v>
       </c>
       <c r="I6" t="n">
-        <v>191692.0857733214</v>
+        <v>192569.9146773408</v>
       </c>
       <c r="J6" t="n">
-        <v>177690.8536330421</v>
+        <v>178568.6825370615</v>
       </c>
       <c r="K6" t="n">
-        <v>143435.1328396888</v>
+        <v>144312.9617437082</v>
       </c>
       <c r="L6" t="n">
-        <v>191692.0857733215</v>
+        <v>192569.9146773407</v>
       </c>
       <c r="M6" t="n">
-        <v>191692.0857733214</v>
+        <v>192569.9146773408</v>
       </c>
       <c r="N6" t="n">
-        <v>191692.0857733213</v>
+        <v>192569.9146773407</v>
       </c>
       <c r="O6" t="n">
-        <v>191692.0857733214</v>
+        <v>192569.9146773407</v>
       </c>
       <c r="P6" t="n">
-        <v>191692.0857733214</v>
+        <v>192569.9146773408</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="C4" t="n">
         <v>187.5017598677093</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.2213126535308</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>340.3178394758903</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>385.0356469194276</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>96.35658893119992</v>
@@ -27430,7 +27430,7 @@
         <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,7 +27470,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>90.95627293750474</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27506,16 +27506,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>172.4288530710251</v>
       </c>
       <c r="V3" t="n">
-        <v>179.2880581394755</v>
+        <v>186.4133429237194</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.1701667673546</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27552,10 +27552,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>108.7146434974898</v>
+        <v>161.0561955029604</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2794979227791</v>
+        <v>101.9379459173085</v>
       </c>
       <c r="J4" t="n">
         <v>39.84665110672302</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>294.2582133306194</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -27634,10 +27634,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,16 +27658,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>17.68650966240068</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,13 +27746,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>168.2260485514006</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>141.6506272315965</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27792,7 +27792,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27813,13 +27813,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27862,19 +27862,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>334.4055473171627</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>388.3750678923967</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,10 +27895,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27950,7 +27950,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,19 +27983,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>181.6803411313483</v>
+        <v>73.51769050751963</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="L2" t="n">
-        <v>51.35040662570935</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="M2" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="L3" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,16 +35255,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35732,16 +35732,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N15" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O18" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>91.0829537758999</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36914,19 +36914,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,16 +37157,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>55.51629994036225</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37400,10 +37400,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37789,7 +37789,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37871,13 +37871,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38114,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1631697.575461432</v>
+        <v>1634021.247275301</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5725620.60267228</v>
+        <v>5725620.602672279</v>
       </c>
     </row>
     <row r="11">
@@ -668,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>21.84039882228386</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -677,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900995001</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900995001</v>
       </c>
       <c r="T2" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>53.51252900995001</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>13.00576294050494</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>53.51252900995001</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>46.3872442257061</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>53.51252900995001</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.51252900995001</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>46.38724422570586</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.170977004479167</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900995001</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3.892417739585136</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.51252900995001</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,11 +910,11 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>205.4093399017307</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>190.1066023865956</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>91.1499599178288</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1145,61 +1147,61 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>26.92766962273839</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>33.60023339142363</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,22 +1265,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>126.647038187302</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>216.6999729388017</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1300,58 +1302,58 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,52 +1384,52 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R11" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S11" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T11" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>90.38893773807641</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1455,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1464,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>125.2132019625774</v>
+        <v>144.5674975588848</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1540,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1552,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1610,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1621,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1649,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>72.47049842454879</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1683,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>110.1497834296626</v>
+        <v>56.26539607665198</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1743,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1850,64 +1852,64 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>33.80371536444981</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>110.8283177867685</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>230.5219311756913</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2041,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2078,17 +2080,17 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
@@ -2123,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,25 +2210,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>15.42067328920995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>24.74894597221386</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2242,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2281,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2315,17 +2317,17 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,25 +2362,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>124.906780124857</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -2451,16 +2453,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2527,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,64 +2566,64 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,16 +2639,16 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>46.68561093626613</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>124.906780124857</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,64 +2797,64 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
@@ -2877,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.3111039422953</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>67.35888363780772</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,14 +3028,14 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="D32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
@@ -3047,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>124.9970695510301</v>
       </c>
       <c r="C33" t="n">
-        <v>150.3246234415776</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3159,22 +3161,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3326,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>82.89146069526061</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3363,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>3.55522121023865</v>
       </c>
     </row>
     <row r="37">
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,14 +3502,14 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
@@ -3524,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,28 +3547,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3594,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>41.49302274650503</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>19.23097888973112</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3703,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3743,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>241.0142888776591</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="F41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3782,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3800,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3819,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>137.0062620734511</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3831,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>106.4852585205976</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4028,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4068,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>10.27068583523948</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
@@ -4147,58 +4149,58 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.79932185354236</v>
+        <v>92.80686254444149</v>
       </c>
       <c r="C2" t="n">
-        <v>41.79932185354236</v>
+        <v>92.80686254444149</v>
       </c>
       <c r="D2" t="n">
-        <v>41.79932185354236</v>
+        <v>92.80686254444149</v>
       </c>
       <c r="E2" t="n">
-        <v>41.79932185354236</v>
+        <v>92.80686254444149</v>
       </c>
       <c r="F2" t="n">
-        <v>19.73831294214452</v>
+        <v>85.86136179523801</v>
       </c>
       <c r="G2" t="n">
-        <v>4.281002320795981</v>
+        <v>70.40405117388947</v>
       </c>
       <c r="H2" t="n">
-        <v>4.281002320795981</v>
+        <v>70.40405117388947</v>
       </c>
       <c r="I2" t="n">
-        <v>4.281002320795981</v>
+        <v>16.35099156787935</v>
       </c>
       <c r="J2" t="n">
-        <v>4.281002320795981</v>
+        <v>4.281002320796001</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064624</v>
+        <v>4.281002320796001</v>
       </c>
       <c r="L2" t="n">
-        <v>108.0953086000985</v>
+        <v>55.11790488024852</v>
       </c>
       <c r="M2" t="n">
-        <v>161.0727123199488</v>
+        <v>108.095308600099</v>
       </c>
       <c r="N2" t="n">
-        <v>161.0727123199488</v>
+        <v>161.0727123199495</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199488</v>
+        <v>161.0727123199495</v>
       </c>
       <c r="P2" t="n">
-        <v>214.050116039799</v>
+        <v>214.0501160398001</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.958500671572</v>
+        <v>214.0501160398001</v>
       </c>
       <c r="R2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.0501160398001</v>
       </c>
       <c r="S2" t="n">
-        <v>95.85238145955222</v>
+        <v>159.9970564337899</v>
       </c>
       <c r="T2" t="n">
-        <v>41.79932185354236</v>
+        <v>159.9970564337899</v>
       </c>
       <c r="U2" t="n">
-        <v>41.79932185354236</v>
+        <v>105.9439968277798</v>
       </c>
       <c r="V2" t="n">
-        <v>41.79932185354236</v>
+        <v>92.80686254444149</v>
       </c>
       <c r="W2" t="n">
-        <v>41.79932185354236</v>
+        <v>92.80686254444149</v>
       </c>
       <c r="X2" t="n">
-        <v>41.79932185354236</v>
+        <v>92.80686254444149</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.79932185354236</v>
+        <v>92.80686254444149</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581695</v>
+        <v>159.9970564337899</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581695</v>
+        <v>159.9970564337899</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581695</v>
+        <v>159.9970564337899</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581695</v>
+        <v>113.141254185602</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581695</v>
+        <v>59.08819457959183</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581695</v>
+        <v>59.08819457959183</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581695</v>
+        <v>5.035134973581715</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581695</v>
+        <v>5.035134973581715</v>
       </c>
       <c r="J3" t="n">
-        <v>4.281002320795981</v>
+        <v>4.281002320796001</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064624</v>
+        <v>57.25840604064651</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064624</v>
+        <v>108.095308600099</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064624</v>
+        <v>108.095308600099</v>
       </c>
       <c r="N3" t="n">
-        <v>57.25840604064624</v>
+        <v>108.095308600099</v>
       </c>
       <c r="O3" t="n">
-        <v>110.2358097604965</v>
+        <v>161.0727123199495</v>
       </c>
       <c r="P3" t="n">
-        <v>163.2132134803468</v>
+        <v>214.0501160398001</v>
       </c>
       <c r="Q3" t="n">
-        <v>214.050116039799</v>
+        <v>214.0501160398001</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>214.0501160398001</v>
       </c>
       <c r="S3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.0501160398001</v>
       </c>
       <c r="T3" t="n">
-        <v>105.9439968277793</v>
+        <v>214.0501160398001</v>
       </c>
       <c r="U3" t="n">
-        <v>51.89093722176944</v>
+        <v>214.0501160398001</v>
       </c>
       <c r="V3" t="n">
-        <v>5.035134973581695</v>
+        <v>214.0501160398001</v>
       </c>
       <c r="W3" t="n">
-        <v>5.035134973581695</v>
+        <v>214.0501160398001</v>
       </c>
       <c r="X3" t="n">
-        <v>5.035134973581695</v>
+        <v>214.0501160398001</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.035134973581695</v>
+        <v>214.0501160398001</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456657</v>
       </c>
       <c r="C4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456657</v>
       </c>
       <c r="D4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456657</v>
       </c>
       <c r="E4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456657</v>
       </c>
       <c r="F4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456657</v>
       </c>
       <c r="G4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456657</v>
       </c>
       <c r="H4" t="n">
-        <v>134.8815577205762</v>
+        <v>80.82849811456657</v>
       </c>
       <c r="I4" t="n">
-        <v>80.8284981145663</v>
+        <v>80.82849811456657</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>26.77543850855646</v>
       </c>
       <c r="K4" t="n">
-        <v>4.281002320795981</v>
+        <v>4.281002320796001</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59512732850896</v>
+        <v>31.59512732850898</v>
       </c>
       <c r="M4" t="n">
-        <v>70.78316552073113</v>
+        <v>70.78316552073116</v>
       </c>
       <c r="N4" t="n">
-        <v>114.4740161761674</v>
+        <v>114.4740161761675</v>
       </c>
       <c r="O4" t="n">
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>134.8815577205767</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>134.8815577205767</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>134.8815577205767</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0643627756056</v>
+        <v>134.8815577205767</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456657</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456657</v>
       </c>
       <c r="X4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456657</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456657</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>513.1241971476163</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="C5" t="n">
-        <v>269.6754205035162</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="D5" t="n">
-        <v>269.6754205035162</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="E5" t="n">
-        <v>269.6754205035162</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="F5" t="n">
+        <v>278.1872303756613</v>
+      </c>
+      <c r="G5" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="G5" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4595,22 +4597,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>756.5729737917163</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>756.5729737917163</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V5" t="n">
-        <v>756.5729737917163</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>756.5729737917163</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X5" t="n">
-        <v>756.5729737917163</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="Y5" t="n">
-        <v>513.1241971476163</v>
+        <v>285.1327311248648</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>441.5762760221259</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C6" t="n">
-        <v>441.5762760221259</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>292.6418663608746</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>133.4044113554191</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>133.4044113554191</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4650,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="V6" t="n">
-        <v>441.5762760221259</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="W6" t="n">
-        <v>441.5762760221259</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="X6" t="n">
-        <v>441.5762760221259</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="Y6" t="n">
-        <v>441.5762760221259</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="7">
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>509.4769954460863</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="C8" t="n">
-        <v>509.4769954460863</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="D8" t="n">
-        <v>509.4769954460863</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E8" t="n">
-        <v>509.4769954460863</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F8" t="n">
-        <v>502.5314946968828</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>752.9257720901863</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="U8" t="n">
-        <v>752.9257720901863</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="V8" t="n">
-        <v>752.9257720901863</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="W8" t="n">
-        <v>509.4769954460863</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="X8" t="n">
-        <v>509.4769954460863</v>
+        <v>525.1941863946997</v>
       </c>
       <c r="Y8" t="n">
-        <v>509.4769954460863</v>
+        <v>281.7454097505996</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4913,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>561.5439803148959</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>561.5439803148959</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>561.5439803148959</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W9" t="n">
-        <v>318.0952036707959</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>318.0952036707959</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
         <v>19.28114311021272</v>
@@ -4999,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C11" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D11" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E11" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F11" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>366.1018663125844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V11" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W11" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X11" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y11" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>178.5185981156682</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C12" t="n">
-        <v>178.5185981156682</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D12" t="n">
-        <v>178.5185981156682</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L12" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M12" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V12" t="n">
-        <v>837.579173730255</v>
+        <v>341.255911560952</v>
       </c>
       <c r="W12" t="n">
-        <v>594.130397086155</v>
+        <v>341.255911560952</v>
       </c>
       <c r="X12" t="n">
-        <v>386.2788968806221</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.5185981156682</v>
+        <v>133.4044113554191</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
         <v>31.35113235729608</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>193.7341723913397</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E15" t="n">
         <v>19.28114311021272</v>
@@ -5364,10 +5366,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
         <v>851.8101010141643</v>
@@ -5379,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W15" t="n">
-        <v>720.6083788665362</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X15" t="n">
-        <v>512.7568786610034</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y15" t="n">
-        <v>304.9965798960495</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C17" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D17" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E17" t="n">
-        <v>812.6742080953335</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F17" t="n">
-        <v>569.2254314512334</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G17" t="n">
-        <v>325.7766548071333</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>82.32787816303323</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U17" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V17" t="n">
-        <v>812.6742080953335</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W17" t="n">
-        <v>812.6742080953335</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X17" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y17" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>789.6041262295092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>640.669716568258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>481.4322615628025</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>334.8977035896875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5604,40 +5606,40 @@
         <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5689,10 +5691,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R19" t="n">
         <v>19.28114311021272</v>
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.7108255783361</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,19 +5837,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>847.3111883976533</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>847.3111883976533</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>847.3111883976533</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>847.3111883976533</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W21" t="n">
-        <v>603.8624117535533</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
-        <v>396.0109115480204</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.2506127830665</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6072,46 +6074,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>23.90796037760316</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>145.4496078827955</v>
       </c>
     </row>
     <row r="25">
@@ -6175,13 +6177,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C26" t="n">
         <v>262.7299197543128</v>
@@ -6212,7 +6214,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>521.1447485139397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>521.1447485139397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>372.2103388526884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>212.9728838472329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>66.43832587411791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6312,16 +6314,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W27" t="n">
-        <v>728.9050472788936</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>728.9050472788936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>521.1447485139397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6548,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>914.2479596093278</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>914.2479596093278</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>914.2479596093278</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>914.2479596093278</v>
+        <v>621.4310051123648</v>
       </c>
       <c r="V30" t="n">
-        <v>679.0958513775852</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="W30" t="n">
-        <v>435.6470747334852</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="X30" t="n">
-        <v>227.7955745279523</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="31">
@@ -6643,10 +6645,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>467.067986854209</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C32" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>171.1241970916042</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
         <v>19.28114311021272</v>
@@ -6786,10 +6788,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N33" t="n">
         <v>613.2059550252818</v>
-      </c>
-      <c r="N33" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
         <v>712.019119383956</v>
@@ -6807,22 +6809,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>790.6398109613051</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W33" t="n">
-        <v>547.1910343172051</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X33" t="n">
-        <v>339.3395341116723</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y33" t="n">
-        <v>339.3395341116723</v>
+        <v>145.5408093233744</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
         <v>19.28114311021272</v>
@@ -6877,31 +6879,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C35" t="n">
-        <v>710.516763498309</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D35" t="n">
-        <v>710.516763498309</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E35" t="n">
-        <v>710.516763498309</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F35" t="n">
-        <v>710.516763498309</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G35" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y35" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>353.3011080883284</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>353.3011080883284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>269.5723599112974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,46 +7022,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>65.60123993063803</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U36" t="n">
-        <v>588.4532163200711</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V36" t="n">
-        <v>353.3011080883284</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W36" t="n">
-        <v>353.3011080883284</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="X36" t="n">
-        <v>353.3011080883284</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="Y36" t="n">
-        <v>353.3011080883284</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="37">
@@ -7123,7 +7125,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>313.2932483084068</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>313.2932483084068</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>313.2932483084068</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>313.2932483084068</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>313.2932483084068</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>174.5624228910223</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>61.19328729860165</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7263,7 +7265,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W39" t="n">
-        <v>728.9050472788936</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>521.0535470733607</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>313.2932483084068</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>710.516763498309</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C41" t="n">
-        <v>710.516763498309</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D41" t="n">
-        <v>467.067986854209</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E41" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U41" t="n">
-        <v>710.516763498309</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V41" t="n">
-        <v>710.516763498309</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W41" t="n">
-        <v>710.516763498309</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X41" t="n">
-        <v>710.516763498309</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="Y41" t="n">
-        <v>710.516763498309</v>
+        <v>82.32787816303323</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>414.6641751762832</v>
+        <v>157.6713068207694</v>
       </c>
       <c r="C42" t="n">
-        <v>240.2111458951562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>240.2111458951562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>240.2111458951562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2111458951562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7494,13 +7496,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M42" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>621.8469951458151</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O42" t="n">
         <v>712.019119383956</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V42" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W42" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X42" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y42" t="n">
-        <v>582.8795121963512</v>
+        <v>325.8866438408374</v>
       </c>
     </row>
     <row r="43">
@@ -7594,19 +7596,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
         <v>19.28114311021272</v>
@@ -7622,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
         <v>19.28114311021272</v>
@@ -7676,22 +7678,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>495.259035872464</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>251.810259228364</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>69.84447166430675</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="C45" t="n">
-        <v>69.84447166430675</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="D45" t="n">
-        <v>69.84447166430675</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="E45" t="n">
-        <v>69.84447166430675</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="F45" t="n">
-        <v>69.84447166430675</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="G45" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7728,49 +7730,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V45" t="n">
-        <v>728.9050472788936</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W45" t="n">
-        <v>485.4562706347935</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X45" t="n">
-        <v>277.6047704292607</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y45" t="n">
-        <v>69.84447166430675</v>
+        <v>30.40970589960398</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -7846,10 +7848,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>287.1168215956969</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>283.8587622372228</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>282.9255926065409</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>284.7455247652196</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>191.353967984309</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>189.9047864055838</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
@@ -8070,13 +8072,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>196.1087734543945</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>187.4869364242803</v>
       </c>
       <c r="Q3" t="n">
-        <v>191.3321807117309</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -8781,13 +8783,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9012,13 +9014,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>247.3552705420797</v>
@@ -9252,7 +9254,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,22 +9485,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,22 +9722,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N27" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,13 +10436,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10668,13 +10670,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>185.3423563661624</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10911,10 +10913,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11142,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11151,7 +11153,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>233.6791982203443</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N45" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23261,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23279,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,22 +23302,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>237.3633207320585</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23343,7 +23345,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23352,13 +23354,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>107.5873851868479</v>
+        <v>88.23308959054049</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23428,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>57.07350359897357</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23440,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23467,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>183.6421058297144</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23498,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23507,13 +23509,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23571,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>56.38340022020472</v>
+        <v>110.2677875732154</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23631,16 +23633,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23738,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>148.0596218681136</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23777,10 +23779,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23789,13 +23791,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>335.9273853140192</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23811,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>26.51519937644218</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>21.17305198522826</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23929,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275654</v>
+        <v>280.8531039918463</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24011,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>156.2624978146279</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>226.9460371887057</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24130,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24169,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,25 +24250,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>240.1525967516569</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>41.62640352501036</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24339,16 +24341,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24497,19 +24499,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24525,16 +24527,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>90.6579062269445</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24570,10 +24572,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24582,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>126.7882030360626</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24661,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24683,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24734,13 +24736,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
@@ -24765,7 +24767,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.84673021034784</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>158.5824984431671</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>284.9381847551875</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24935,7 +24937,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,16 +24961,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>41.53611409883725</v>
       </c>
       <c r="C33" t="n">
-        <v>22.38387554673815</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25047,22 +25049,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25117,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25214,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,13 +25235,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>64.55360486937815</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25251,10 +25253,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>202.1274745670657</v>
       </c>
     </row>
     <row r="37">
@@ -25363,10 +25365,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25412,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,28 +25435,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>316.5592023139553</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>169.3950043896394</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>47.90361010491005</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25515,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>180.9337498050905</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25591,10 +25593,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25631,13 +25633,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>319.5141023699695</v>
       </c>
       <c r="F41" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25670,10 +25672,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25688,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25707,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>35.70223691486467</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25719,10 +25721,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>30.85825864261307</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25755,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25834,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.5300167065108</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25916,16 +25918,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>127.0728313279712</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>40.08552890911985</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26001,7 +26003,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>374159.2379208572</v>
+        <v>374159.237920857</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>374159.2379208573</v>
+        <v>374159.2379208572</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>374159.2379208572</v>
+        <v>374159.2379208573</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>374159.2379208572</v>
+        <v>374159.2379208573</v>
       </c>
     </row>
     <row r="13">
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
+        <v>249241.0087969986</v>
+      </c>
+      <c r="F2" t="n">
         <v>249241.0087969985</v>
-      </c>
-      <c r="F2" t="n">
-        <v>249241.0087969986</v>
       </c>
       <c r="G2" t="n">
         <v>249241.0087969986</v>
@@ -26341,16 +26343,16 @@
         <v>249241.0087969986</v>
       </c>
       <c r="L2" t="n">
-        <v>249241.0087969985</v>
+        <v>249241.0087969986</v>
       </c>
       <c r="M2" t="n">
         <v>249241.0087969986</v>
       </c>
       <c r="N2" t="n">
-        <v>249241.0087969985</v>
+        <v>249241.0087969986</v>
       </c>
       <c r="O2" t="n">
-        <v>249241.0087969985</v>
+        <v>249241.0087969986</v>
       </c>
       <c r="P2" t="n">
         <v>249241.0087969986</v>
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940148</v>
       </c>
       <c r="C3" t="n">
-        <v>60576.32218666811</v>
+        <v>60576.32218666803</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14001.23214027929</v>
+        <v>14001.23214027936</v>
       </c>
       <c r="K3" t="n">
-        <v>48256.95293363261</v>
+        <v>48256.95293363254</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26424,34 +26426,34 @@
         <v>320962.9529903556</v>
       </c>
       <c r="E4" t="n">
+        <v>42017.42535589615</v>
+      </c>
+      <c r="F4" t="n">
         <v>42017.42535589614</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>42017.42535589615</v>
-      </c>
-      <c r="G4" t="n">
-        <v>42017.42535589614</v>
       </c>
       <c r="H4" t="n">
         <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
+        <v>42017.42535589615</v>
+      </c>
+      <c r="J4" t="n">
+        <v>42017.42535589615</v>
+      </c>
+      <c r="K4" t="n">
         <v>42017.42535589614</v>
-      </c>
-      <c r="J4" t="n">
-        <v>42017.42535589614</v>
-      </c>
-      <c r="K4" t="n">
-        <v>42017.42535589616</v>
       </c>
       <c r="L4" t="n">
         <v>42017.42535589614</v>
       </c>
       <c r="M4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="N4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="O4" t="n">
         <v>42017.42535589615</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36881.16176380494</v>
+        <v>36881.16176380496</v>
       </c>
       <c r="C5" t="n">
         <v>48281.26876376167</v>
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200792.5218551174</v>
+        <v>200792.5218551175</v>
       </c>
       <c r="C6" t="n">
-        <v>185960.783457427</v>
+        <v>185960.7834574272</v>
       </c>
       <c r="D6" t="n">
-        <v>246537.1056440954</v>
+        <v>246537.1056440953</v>
       </c>
       <c r="E6" t="n">
+        <v>192569.9146773408</v>
+      </c>
+      <c r="F6" t="n">
         <v>192569.9146773407</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>192569.9146773408</v>
-      </c>
-      <c r="G6" t="n">
-        <v>192569.9146773407</v>
       </c>
       <c r="H6" t="n">
         <v>192569.9146773408</v>
       </c>
       <c r="I6" t="n">
-        <v>192569.9146773408</v>
+        <v>192569.9146773407</v>
       </c>
       <c r="J6" t="n">
-        <v>178568.6825370615</v>
+        <v>178568.6825370614</v>
       </c>
       <c r="K6" t="n">
         <v>144312.9617437082</v>
       </c>
       <c r="L6" t="n">
-        <v>192569.9146773407</v>
+        <v>192569.9146773408</v>
       </c>
       <c r="M6" t="n">
         <v>192569.9146773408</v>
@@ -26561,7 +26563,7 @@
         <v>192569.9146773407</v>
       </c>
       <c r="P6" t="n">
-        <v>192569.9146773408</v>
+        <v>192569.9146773407</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900995001</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900995001</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5017598677093</v>
+        <v>187.501759867709</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900995002</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5017598677093</v>
+        <v>187.501759867709</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900995001</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5017598677093</v>
+        <v>187.501759867709</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27388,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>385.0356469194276</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,10 +27399,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604559</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,22 +27423,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>96.35658893119992</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>155.5075405762953</v>
       </c>
       <c r="T2" t="n">
-        <v>169.5833205541816</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978865</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>314.74649552963</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>113.0206546399173</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,16 +27466,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>111.2578362296948</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>91.55668338343386</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654645</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27506,16 +27508,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>146.6521996848718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>172.4288530710251</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>186.4133429237194</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27552,13 +27554,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>161.0561955029604</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9379459173085</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>39.84665110672276</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27576,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>173.4009736375843</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27594,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>198.625114313878</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27667,22 +27669,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>17.68650966240068</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>179.6244982918734</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27704,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>154.8758545618492</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>141.6506272315965</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27813,13 +27815,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27865,16 +27867,16 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>388.3750678923967</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,16 +27897,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>189.4956161727077</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27950,10 +27952,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,22 +27985,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>73.51769050751963</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>16.10061421062358</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.35040662570938</v>
+        <v>51.35040662570962</v>
       </c>
       <c r="M2" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900995001</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>53.51252900995001</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900995001</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900995001</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>51.35040662570962</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900995001</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900995001</v>
       </c>
       <c r="Q3" t="n">
-        <v>51.35040662570938</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>113.3808631277494</v>
@@ -35972,7 +35974,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>226.4350751681936</v>
-      </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,13 +36916,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>99.8112771299739</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>46.78797658628819</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37631,10 +37633,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O39" t="n">
         <v>226.4350751681936</v>
-      </c>
-      <c r="O39" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37789,7 +37791,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37862,7 +37864,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37871,7 +37873,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38023,7 +38025,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N45" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
